--- a/tests/integration/data/Renderer016-ForEach-merged-pyramid/template.xlsx
+++ b/tests/integration/data/Renderer016-ForEach-merged-pyramid/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siemi\aProjects\xlsx-renderer-2\tests\integration\data\Renderer016-ForEach-merged-pyramid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petricahorlescu/Documents/GIT/MillTechFX.xlsx-renderer/tests/integration/data/Renderer016-ForEach-merged-pyramid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E79194-9C94-4D5E-98A8-5D06B0F1F424}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9366C34B-E81C-7045-8BDF-9D370F349497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27795" windowHeight="16440" xr2:uid="{51D64FAE-FDF3-4046-A668-3472FA61F864}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27800" windowHeight="16100" xr2:uid="{51D64FAE-FDF3-4046-A668-3472FA61F864}"/>
   </bookViews>
   <sheets>
     <sheet name="Most common for each" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>#! FINISHED</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>## item3.z</t>
+  </si>
+  <si>
+    <t>#! END_ROW</t>
+  </si>
+  <si>
+    <t>#! END_ROW true</t>
   </si>
 </sst>
 </file>
@@ -212,9 +218,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,120 +565,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CB5A86-9F62-4CA9-8E69-0560B4CC82E1}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" t="s">
         <v>4</v>
       </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
       </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
       <c r="I3" t="s">
         <v>12</v>
       </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="8"/>
       <c r="I4" t="s">
         <v>13</v>
       </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
       <c r="I5" t="s">
         <v>14</v>
       </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
       </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
